--- a/INTLINE/data/142/STANOR/10336 First time registered private cars.xlsx
+++ b/INTLINE/data/142/STANOR/10336 First time registered private cars.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
   <x:si>
     <x:t>10336: First time registered private cars, by month, contents and type of adjustment</x:t>
   </x:si>
@@ -1147,6 +1147,15 @@
     <x:t>2022M02</x:t>
   </x:si>
   <x:si>
+    <x:t>2022M03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M05</x:t>
+  </x:si>
+  <x:si>
     <x:t>New and imported used cars first-time registered in Norway in the vehicle groups passenger car (101), ambulance (106) and recreational vehicles (316).</x:t>
   </x:si>
   <x:si>
@@ -1156,7 +1165,7 @@
     <x:t>First time registered private cars, incl recreational vehicles:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220302 08:00</x:t>
+    <x:t>20220602 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1618,7 +1627,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B428"/>
+  <x:dimension ref="A1:B431"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -4634,169 +4643,193 @@
         <x:v>9286</x:v>
       </x:c>
     </x:row>
+    <x:row r="379" spans="1:2">
+      <x:c r="A379" s="2" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="B379" s="3" t="n">
+        <x:v>17856</x:v>
+      </x:c>
+    </x:row>
     <x:row r="380" spans="1:2">
-      <x:c r="A380" s="4" t="s">
-        <x:v>377</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="382" spans="1:2">
-      <x:c r="A382" s="0" t="s">
+      <x:c r="A380" s="2" t="s">
         <x:v>378</x:v>
       </x:c>
+      <x:c r="B380" s="3" t="n">
+        <x:v>11492</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="381" spans="1:2">
+      <x:c r="A381" s="2" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="B381" s="3" t="n">
+        <x:v>13513</x:v>
+      </x:c>
     </x:row>
     <x:row r="383" spans="1:2">
-      <x:c r="A383" s="0" t="s">
-        <x:v>379</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="384" spans="1:2">
-      <x:c r="A384" s="0" t="s">
+      <x:c r="A383" s="4" t="s">
         <x:v>380</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="385" spans="1:2">
+      <x:c r="A385" s="0" t="s">
+        <x:v>381</x:v>
       </x:c>
     </x:row>
     <x:row r="386" spans="1:2">
       <x:c r="A386" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="387" spans="1:2">
       <x:c r="A387" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
     </x:row>
     <x:row r="389" spans="1:2">
       <x:c r="A389" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
     </x:row>
     <x:row r="390" spans="1:2">
       <x:c r="A390" s="0" t="s">
-        <x:v>379</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="391" spans="1:2">
-      <x:c r="A391" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="392" spans="1:2">
       <x:c r="A392" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="393" spans="1:2">
       <x:c r="A393" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>382</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="394" spans="1:2">
+      <x:c r="A394" s="0" t="s">
+        <x:v>387</x:v>
       </x:c>
     </x:row>
     <x:row r="395" spans="1:2">
       <x:c r="A395" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
     <x:row r="396" spans="1:2">
       <x:c r="A396" s="0" t="s">
-        <x:v>388</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="397" spans="1:2">
-      <x:c r="A397" s="0" t="s">
         <x:v>389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="398" spans="1:2">
+      <x:c r="A398" s="0" t="s">
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="399" spans="1:2">
       <x:c r="A399" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
     </x:row>
     <x:row r="400" spans="1:2">
       <x:c r="A400" s="0" t="s">
-        <x:v>391</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="401" spans="1:2">
-      <x:c r="A401" s="0" t="s">
         <x:v>392</x:v>
       </x:c>
     </x:row>
-    <x:row r="405" spans="1:2">
-      <x:c r="A405" s="0" t="s">
+    <x:row r="402" spans="1:2">
+      <x:c r="A402" s="0" t="s">
         <x:v>393</x:v>
       </x:c>
     </x:row>
-    <x:row r="407" spans="1:2">
-      <x:c r="A407" s="0" t="s">
+    <x:row r="403" spans="1:2">
+      <x:c r="A403" s="0" t="s">
         <x:v>394</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="404" spans="1:2">
+      <x:c r="A404" s="0" t="s">
+        <x:v>395</x:v>
       </x:c>
     </x:row>
     <x:row r="408" spans="1:2">
       <x:c r="A408" s="0" t="s">
-        <x:v>379</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="409" spans="1:2">
-      <x:c r="A409" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
     </x:row>
     <x:row r="410" spans="1:2">
       <x:c r="A410" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
     </x:row>
     <x:row r="411" spans="1:2">
       <x:c r="A411" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="412" spans="1:2">
       <x:c r="A412" s="0" t="s">
-        <x:v>397</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="417" spans="1:2">
-      <x:c r="A417" s="0" t="s">
-        <x:v>379</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="418" spans="1:2">
-      <x:c r="A418" s="0" t="s">
         <x:v>398</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="413" spans="1:2">
+      <x:c r="A413" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="414" spans="1:2">
+      <x:c r="A414" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="415" spans="1:2">
+      <x:c r="A415" s="0" t="s">
+        <x:v>400</x:v>
       </x:c>
     </x:row>
     <x:row r="420" spans="1:2">
       <x:c r="A420" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="421" spans="1:2">
       <x:c r="A421" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>401</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="423" spans="1:2">
+      <x:c r="A423" s="0" t="s">
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="424" spans="1:2">
       <x:c r="A424" s="0" t="s">
-        <x:v>400</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="425" spans="1:2">
-      <x:c r="A425" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
     </x:row>
     <x:row r="427" spans="1:2">
       <x:c r="A427" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
     </x:row>
     <x:row r="428" spans="1:2">
       <x:c r="A428" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="430" spans="1:2">
+      <x:c r="A430" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="431" spans="1:2">
+      <x:c r="A431" s="0" t="s">
+        <x:v>406</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="A380:B380"/>
+    <x:mergeCell ref="A383:B383"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
